--- a/document/策划案/资源列表.xlsx
+++ b/document/策划案/资源列表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>序号</t>
   </si>
@@ -293,6 +293,21 @@
   </si>
   <si>
     <t>掉落物品</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>元宝</t>
+  </si>
+  <si>
+    <t>白条</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>宝箱</t>
   </si>
   <si>
     <t>刀砍效果</t>
@@ -471,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -486,7 +501,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -496,7 +510,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,12 +520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,28 +608,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -941,11 +940,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -977,294 +976,294 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="2" width="31.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="95.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="9" customWidth="1"/>
-    <col min="5" max="256" width="9" style="9"/>
+    <col min="1" max="1" width="16" style="8" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="95.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="8" customWidth="1"/>
+    <col min="5" max="256" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:4">
-      <c r="A2" s="9">
+    <row r="2" s="8" customFormat="1" spans="1:4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:3">
-      <c r="A3" s="9">
+    <row r="3" s="8" customFormat="1" spans="1:3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="28.5" spans="1:4">
-      <c r="A4" s="9">
+    <row r="4" s="8" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:3">
-      <c r="A5" s="9">
+    <row r="5" s="8" customFormat="1" spans="1:3">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:4">
-      <c r="A6" s="9">
+    <row r="6" s="8" customFormat="1" spans="1:4">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:3">
-      <c r="A7" s="9">
+    <row r="7" s="8" customFormat="1" spans="1:3">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" ht="28.5" spans="1:4">
-      <c r="A8" s="9">
+    <row r="8" s="8" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="28.5" spans="1:4">
-      <c r="A9" s="9">
+    <row r="9" s="8" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:3">
-      <c r="A10" s="9">
+    <row r="10" s="8" customFormat="1" spans="1:3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:3">
-      <c r="A11" s="9">
+    <row r="11" s="8" customFormat="1" spans="1:3">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:1">
-      <c r="A12" s="9">
+    <row r="12" s="8" customFormat="1" spans="1:1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" spans="1:1">
-      <c r="A13" s="9">
+    <row r="13" s="8" customFormat="1" spans="1:1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" spans="1:1">
-      <c r="A14" s="9">
+    <row r="14" s="8" customFormat="1" spans="1:1">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" spans="1:1">
-      <c r="A15" s="9">
+    <row r="15" s="8" customFormat="1" spans="1:1">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" spans="1:1">
-      <c r="A16" s="9">
+    <row r="16" s="8" customFormat="1" spans="1:1">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" spans="1:1">
-      <c r="A17" s="9">
+    <row r="17" s="8" customFormat="1" spans="1:1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" spans="1:1">
-      <c r="A18" s="9">
+    <row r="18" s="8" customFormat="1" spans="1:1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" spans="1:1">
-      <c r="A19" s="9">
+    <row r="19" s="8" customFormat="1" spans="1:1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" spans="1:1">
-      <c r="A20" s="9">
+    <row r="20" s="8" customFormat="1" spans="1:1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" spans="1:1">
-      <c r="A21" s="9">
+    <row r="21" s="8" customFormat="1" spans="1:1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="1" spans="1:1">
-      <c r="A22" s="9">
+    <row r="22" s="8" customFormat="1" spans="1:1">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="1" spans="1:1">
-      <c r="A23" s="9">
+    <row r="23" s="8" customFormat="1" spans="1:1">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="24" s="9" customFormat="1" spans="1:1">
-      <c r="A24" s="9">
+    <row r="24" s="8" customFormat="1" spans="1:1">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="1" spans="1:1">
-      <c r="A25" s="9">
+    <row r="25" s="8" customFormat="1" spans="1:1">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="26" s="9" customFormat="1" spans="1:1">
-      <c r="A26" s="9">
+    <row r="26" s="8" customFormat="1" spans="1:1">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="27" s="9" customFormat="1" spans="1:1">
-      <c r="A27" s="9">
+    <row r="27" s="8" customFormat="1" spans="1:1">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="9" customFormat="1" spans="1:1">
-      <c r="A28" s="9">
+    <row r="28" s="8" customFormat="1" spans="1:1">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="9" customFormat="1" spans="1:1">
-      <c r="A29" s="9">
+    <row r="29" s="8" customFormat="1" spans="1:1">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="9" customFormat="1" spans="1:1">
-      <c r="A30" s="9">
+    <row r="30" s="8" customFormat="1" spans="1:1">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
     </row>
-    <row r="31" s="9" customFormat="1" spans="1:1">
-      <c r="A31" s="9">
+    <row r="31" s="8" customFormat="1" spans="1:1">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="32" s="9" customFormat="1" spans="1:1">
-      <c r="A32" s="9">
+    <row r="32" s="8" customFormat="1" spans="1:1">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="33" s="9" customFormat="1" spans="1:1">
-      <c r="A33" s="9">
+    <row r="33" s="8" customFormat="1" spans="1:1">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" spans="1:1">
-      <c r="A34" s="9">
+    <row r="34" s="8" customFormat="1" spans="1:1">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" spans="1:1">
-      <c r="A35" s="9">
+    <row r="35" s="8" customFormat="1" spans="1:1">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" spans="1:1">
-      <c r="A36" s="9">
+    <row r="36" s="8" customFormat="1" spans="1:1">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" spans="1:1">
-      <c r="A37" s="9">
+    <row r="37" s="8" customFormat="1" spans="1:1">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" spans="1:1">
-      <c r="A38" s="9">
+    <row r="38" s="8" customFormat="1" spans="1:1">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
     </row>
-    <row r="39" s="9" customFormat="1" spans="1:1">
-      <c r="A39" s="9">
+    <row r="39" s="8" customFormat="1" spans="1:1">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1287,44 +1286,44 @@
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" customFormat="1" spans="1:2">
       <c r="A2" s="6">
         <v>90001</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="28.5" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:2">
       <c r="A3" s="6">
         <v>90002</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="28.5" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:2">
       <c r="A4" s="6">
         <v>90003</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1332,7 +1331,7 @@
         <v>90004</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1340,7 +1339,7 @@
         <v>90005</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1348,41 +1347,41 @@
         <v>90006</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1426,258 +1425,258 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1684,7 @@
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="B27:B42"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1702,7 +1701,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1719,12 +1718,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="20.375" style="9" customWidth="1"/>
-    <col min="4" max="256" width="9" style="9"/>
+    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="20.375" style="8" customWidth="1"/>
+    <col min="4" max="256" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row r="1" s="8" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1735,109 +1734,109 @@
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A2" s="9">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A2" s="8">
         <v>10001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:3">
-      <c r="A3" s="9">
+    <row r="3" s="8" customFormat="1" spans="1:3">
+      <c r="A3" s="8">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:3">
-      <c r="A4" s="9">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:3">
+      <c r="A4" s="8">
         <v>10003</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:3">
-      <c r="A5" s="9">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:3">
+      <c r="A5" s="8">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:3">
-      <c r="A6" s="9">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:3">
+      <c r="A6" s="8">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" s="9" customFormat="1" spans="1:3">
-      <c r="A7" s="9">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:3">
+      <c r="A7" s="8">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" s="9" customFormat="1" spans="1:3">
-      <c r="A8" s="9">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:3">
+      <c r="A8" s="8">
         <v>10007</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:3">
-      <c r="A9" s="9">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:3">
+      <c r="A9" s="8">
         <v>10008</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:3">
-      <c r="A10" s="9">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:3">
+      <c r="A10" s="8">
         <v>10009</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>10010</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:C11"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1854,12 +1853,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
-    <col min="2" max="3" width="20.375" style="9" customWidth="1"/>
-    <col min="4" max="256" width="9" style="9"/>
+    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="20.375" style="8" customWidth="1"/>
+    <col min="4" max="256" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row r="1" s="8" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1870,78 +1869,78 @@
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:2">
-      <c r="A2" s="9">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:2">
+      <c r="A2" s="8">
         <v>20001</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:2">
-      <c r="A3" s="9">
+    <row r="3" s="8" customFormat="1" spans="1:2">
+      <c r="A3" s="8">
         <v>20002</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:2">
-      <c r="A4" s="9">
+    <row r="4" s="8" customFormat="1" spans="1:2">
+      <c r="A4" s="8">
         <v>20003</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:2">
-      <c r="A5" s="9">
+    <row r="5" s="8" customFormat="1" spans="1:2">
+      <c r="A5" s="8">
         <v>20004</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:2">
-      <c r="A6" s="9">
+    <row r="6" s="8" customFormat="1" spans="1:2">
+      <c r="A6" s="8">
         <v>20005</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:2">
-      <c r="A7" s="9">
+    <row r="7" s="8" customFormat="1" spans="1:2">
+      <c r="A7" s="8">
         <v>20006</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:2">
-      <c r="A8" s="9">
+    <row r="8" s="8" customFormat="1" spans="1:2">
+      <c r="A8" s="8">
         <v>20007</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:2">
-      <c r="A9" s="9">
+    <row r="9" s="8" customFormat="1" spans="1:2">
+      <c r="A9" s="8">
         <v>20008</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:2">
-      <c r="A10" s="9">
+    <row r="10" s="8" customFormat="1" spans="1:2">
+      <c r="A10" s="8">
         <v>20009</v>
       </c>
       <c r="B10" t="s">
@@ -1949,15 +1948,15 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>20010</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1974,431 +1973,431 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="48.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9" style="13"/>
-    <col min="5" max="5" width="21" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22" style="13" customWidth="1"/>
-    <col min="7" max="7" width="27" style="13" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="27.25" style="13" customWidth="1"/>
-    <col min="10" max="256" width="9" style="13"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="48.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.25" style="1" customWidth="1"/>
+    <col min="10" max="256" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:3">
-      <c r="A2" s="12">
+      <c r="D1" s="3"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" s="10" customFormat="1" spans="1:3">
+      <c r="A2" s="10">
         <v>30001</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" spans="1:3">
-      <c r="A3" s="12">
+    <row r="3" s="10" customFormat="1" spans="1:3">
+      <c r="A3" s="10">
         <v>30002</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" s="13" customFormat="1" spans="1:3">
-      <c r="A4" s="13">
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1">
         <v>30003</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" s="13" customFormat="1" spans="1:3">
-      <c r="A5" s="13">
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="1">
         <v>30004</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" s="13" customFormat="1" spans="1:3">
-      <c r="A6" s="13">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="1">
         <v>30005</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" s="13" customFormat="1" spans="1:3">
-      <c r="A7" s="13">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="1">
         <v>30006</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" s="13" customFormat="1" spans="1:3">
-      <c r="A8" s="13">
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1">
         <v>30007</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" s="13" customFormat="1" spans="1:3">
-      <c r="A9" s="13">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="1">
         <v>30008</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" s="13" customFormat="1" spans="1:3">
-      <c r="A10" s="13">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1">
         <v>30009</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" s="13" customFormat="1" spans="1:3">
-      <c r="A11" s="13">
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="1">
         <v>30010</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" s="13" customFormat="1" spans="1:3">
-      <c r="A12" s="13">
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1">
         <v>30011</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" s="13" customFormat="1" spans="1:3">
-      <c r="A13" s="13">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="1">
         <v>30012</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" s="12" customFormat="1" spans="1:3">
-      <c r="A14" s="12">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" s="10" customFormat="1" spans="1:3">
+      <c r="A14" s="10">
         <v>30013</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" s="12" customFormat="1" spans="1:3">
-      <c r="A15" s="12">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:3">
+      <c r="A15" s="10">
         <v>30014</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" s="12" customFormat="1" spans="1:3">
-      <c r="A16" s="12">
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" s="10" customFormat="1" spans="1:3">
+      <c r="A16" s="10">
         <v>30015</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" s="12" customFormat="1" spans="1:3">
-      <c r="A17" s="12">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" s="10" customFormat="1" spans="1:3">
+      <c r="A17" s="10">
         <v>30016</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:3">
-      <c r="A18" s="12">
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" s="10" customFormat="1" spans="1:3">
+      <c r="A18" s="10">
         <v>30017</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" s="12" customFormat="1" spans="1:3">
-      <c r="A19" s="12">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" s="10" customFormat="1" spans="1:3">
+      <c r="A19" s="10">
         <v>30018</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" s="12" customFormat="1" spans="1:3">
-      <c r="A20" s="12">
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" s="10" customFormat="1" spans="1:3">
+      <c r="A20" s="10">
         <v>30019</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" s="12" customFormat="1" spans="1:3">
-      <c r="A21" s="12">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:3">
+      <c r="A21" s="10">
         <v>30020</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" s="12" customFormat="1" spans="1:3">
-      <c r="A22" s="12">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" s="10" customFormat="1" spans="1:3">
+      <c r="A22" s="10">
         <v>30021</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" s="12" customFormat="1" spans="1:3">
-      <c r="A23" s="12">
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" s="10" customFormat="1" spans="1:3">
+      <c r="A23" s="10">
         <v>30022</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" s="12" customFormat="1" spans="1:1">
-      <c r="A24" s="12">
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:1">
+      <c r="A24" s="10">
         <v>30023</v>
       </c>
     </row>
-    <row r="25" s="12" customFormat="1" spans="1:1">
-      <c r="A25" s="12">
+    <row r="25" s="10" customFormat="1" spans="1:1">
+      <c r="A25" s="10">
         <v>30024</v>
       </c>
     </row>
-    <row r="26" s="12" customFormat="1" spans="1:1">
-      <c r="A26" s="12">
+    <row r="26" s="10" customFormat="1" spans="1:1">
+      <c r="A26" s="10">
         <v>30025</v>
       </c>
     </row>
-    <row r="27" s="12" customFormat="1" spans="1:1">
-      <c r="A27" s="12">
+    <row r="27" s="10" customFormat="1" spans="1:1">
+      <c r="A27" s="10">
         <v>30026</v>
       </c>
     </row>
-    <row r="28" s="12" customFormat="1" spans="1:1">
-      <c r="A28" s="12">
+    <row r="28" s="10" customFormat="1" spans="1:1">
+      <c r="A28" s="10">
         <v>30027</v>
       </c>
     </row>
-    <row r="29" s="12" customFormat="1" spans="1:1">
-      <c r="A29" s="12">
+    <row r="29" s="10" customFormat="1" spans="1:1">
+      <c r="A29" s="10">
         <v>30028</v>
       </c>
     </row>
-    <row r="30" s="13" customFormat="1" spans="1:1">
-      <c r="A30" s="13">
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="1">
         <v>30029</v>
       </c>
     </row>
-    <row r="31" s="13" customFormat="1" spans="1:1">
-      <c r="A31" s="13">
+    <row r="31" s="1" customFormat="1" spans="1:1">
+      <c r="A31" s="1">
         <v>30030</v>
       </c>
     </row>
-    <row r="32" s="13" customFormat="1" spans="1:1">
-      <c r="A32" s="13">
+    <row r="32" s="1" customFormat="1" spans="1:1">
+      <c r="A32" s="1">
         <v>30031</v>
       </c>
     </row>
-    <row r="33" s="13" customFormat="1" spans="1:1">
-      <c r="A33" s="13">
+    <row r="33" s="1" customFormat="1" spans="1:1">
+      <c r="A33" s="1">
         <v>30032</v>
       </c>
     </row>
-    <row r="34" s="13" customFormat="1" spans="1:1">
-      <c r="A34" s="13">
+    <row r="34" s="1" customFormat="1" spans="1:1">
+      <c r="A34" s="1">
         <v>30033</v>
       </c>
     </row>
-    <row r="35" s="13" customFormat="1" spans="1:1">
-      <c r="A35" s="13">
+    <row r="35" s="1" customFormat="1" spans="1:1">
+      <c r="A35" s="1">
         <v>30034</v>
       </c>
     </row>
-    <row r="36" s="13" customFormat="1" spans="1:1">
-      <c r="A36" s="13">
+    <row r="36" s="1" customFormat="1" spans="1:1">
+      <c r="A36" s="1">
         <v>30035</v>
       </c>
     </row>
-    <row r="37" s="13" customFormat="1" spans="1:1">
-      <c r="A37" s="13">
+    <row r="37" s="1" customFormat="1" spans="1:1">
+      <c r="A37" s="1">
         <v>30036</v>
       </c>
     </row>
-    <row r="38" s="13" customFormat="1" spans="1:1">
-      <c r="A38" s="13">
+    <row r="38" s="1" customFormat="1" spans="1:1">
+      <c r="A38" s="1">
         <v>30037</v>
       </c>
     </row>
-    <row r="39" s="13" customFormat="1" spans="1:1">
-      <c r="A39" s="13">
+    <row r="39" s="1" customFormat="1" spans="1:1">
+      <c r="A39" s="1">
         <v>30038</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="1" spans="1:1">
-      <c r="A40" s="13">
+    <row r="40" s="1" customFormat="1" spans="1:1">
+      <c r="A40" s="1">
         <v>30039</v>
       </c>
     </row>
-    <row r="41" s="13" customFormat="1" spans="1:1">
-      <c r="A41" s="13">
+    <row r="41" s="1" customFormat="1" spans="1:1">
+      <c r="A41" s="1">
         <v>30040</v>
       </c>
     </row>
-    <row r="42" s="13" customFormat="1" spans="1:1">
-      <c r="A42" s="13">
+    <row r="42" s="1" customFormat="1" spans="1:1">
+      <c r="A42" s="1">
         <v>30041</v>
       </c>
     </row>
-    <row r="43" s="13" customFormat="1" spans="1:1">
-      <c r="A43" s="13">
+    <row r="43" s="1" customFormat="1" spans="1:1">
+      <c r="A43" s="1">
         <v>30042</v>
       </c>
     </row>
-    <row r="44" s="13" customFormat="1" spans="1:1">
-      <c r="A44" s="13">
+    <row r="44" s="1" customFormat="1" spans="1:1">
+      <c r="A44" s="1">
         <v>30043</v>
       </c>
     </row>
-    <row r="45" s="13" customFormat="1" spans="1:1">
-      <c r="A45" s="13">
+    <row r="45" s="1" customFormat="1" spans="1:1">
+      <c r="A45" s="1">
         <v>30044</v>
       </c>
     </row>
-    <row r="46" s="13" customFormat="1" spans="1:1">
-      <c r="A46" s="13">
+    <row r="46" s="1" customFormat="1" spans="1:1">
+      <c r="A46" s="1">
         <v>30045</v>
       </c>
     </row>
-    <row r="47" s="13" customFormat="1" spans="1:1">
-      <c r="A47" s="13">
+    <row r="47" s="1" customFormat="1" spans="1:1">
+      <c r="A47" s="1">
         <v>30046</v>
       </c>
     </row>
-    <row r="48" s="13" customFormat="1" spans="1:1">
-      <c r="A48" s="13">
+    <row r="48" s="1" customFormat="1" spans="1:1">
+      <c r="A48" s="1">
         <v>30047</v>
       </c>
     </row>
-    <row r="49" s="13" customFormat="1" spans="1:1">
-      <c r="A49" s="13">
+    <row r="49" s="1" customFormat="1" spans="1:1">
+      <c r="A49" s="1">
         <v>30048</v>
       </c>
     </row>
-    <row r="50" s="13" customFormat="1" spans="1:1">
-      <c r="A50" s="13">
+    <row r="50" s="1" customFormat="1" spans="1:1">
+      <c r="A50" s="1">
         <v>30049</v>
       </c>
     </row>
-    <row r="51" s="13" customFormat="1" spans="1:1">
-      <c r="A51" s="13">
+    <row r="51" s="1" customFormat="1" spans="1:1">
+      <c r="A51" s="1">
         <v>30050</v>
       </c>
     </row>
-    <row r="52" s="13" customFormat="1" spans="1:1">
-      <c r="A52" s="13">
+    <row r="52" s="1" customFormat="1" spans="1:1">
+      <c r="A52" s="1">
         <v>30051</v>
       </c>
     </row>
-    <row r="53" s="13" customFormat="1" spans="1:1">
-      <c r="A53" s="13">
+    <row r="53" s="1" customFormat="1" spans="1:1">
+      <c r="A53" s="1">
         <v>30052</v>
       </c>
     </row>
-    <row r="54" s="13" customFormat="1" spans="1:1">
-      <c r="A54" s="13">
+    <row r="54" s="1" customFormat="1" spans="1:1">
+      <c r="A54" s="1">
         <v>30053</v>
       </c>
     </row>
-    <row r="55" s="13" customFormat="1" spans="1:1">
-      <c r="A55" s="13">
+    <row r="55" s="1" customFormat="1" spans="1:1">
+      <c r="A55" s="1">
         <v>30054</v>
       </c>
     </row>
-    <row r="56" s="13" customFormat="1" spans="1:1">
-      <c r="A56" s="13">
+    <row r="56" s="1" customFormat="1" spans="1:1">
+      <c r="A56" s="1">
         <v>30055</v>
       </c>
     </row>
-    <row r="57" s="13" customFormat="1" spans="1:1">
-      <c r="A57" s="13">
+    <row r="57" s="1" customFormat="1" spans="1:1">
+      <c r="A57" s="1">
         <v>30056</v>
       </c>
     </row>
-    <row r="58" s="13" customFormat="1" spans="1:1">
-      <c r="A58" s="13">
+    <row r="58" s="1" customFormat="1" spans="1:1">
+      <c r="A58" s="1">
         <v>30057</v>
       </c>
     </row>
-    <row r="59" s="13" customFormat="1" spans="1:1">
-      <c r="A59" s="13">
+    <row r="59" s="1" customFormat="1" spans="1:1">
+      <c r="A59" s="1">
         <v>30058</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="1" spans="1:1">
-      <c r="A60" s="13">
+    <row r="60" s="1" customFormat="1" spans="1:1">
+      <c r="A60" s="1">
         <v>30059</v>
       </c>
     </row>
-    <row r="61" s="13" customFormat="1" spans="1:1">
-      <c r="A61" s="13">
+    <row r="61" s="1" customFormat="1" spans="1:1">
+      <c r="A61" s="1">
         <v>30060</v>
       </c>
     </row>
-    <row r="62" s="13" customFormat="1" spans="1:1">
-      <c r="A62" s="13">
+    <row r="62" s="1" customFormat="1" spans="1:1">
+      <c r="A62" s="1">
         <v>30061</v>
       </c>
     </row>
-    <row r="63" s="13" customFormat="1" spans="1:1">
-      <c r="A63" s="13">
+    <row r="63" s="1" customFormat="1" spans="1:1">
+      <c r="A63" s="1">
         <v>30062</v>
       </c>
     </row>
@@ -2406,7 +2405,7 @@
   <mergeCells count="1">
     <mergeCell ref="C2:C23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2423,7 +2422,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2440,7 +2439,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row r="1" s="8" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2451,14 +2450,14 @@
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2475,7 +2474,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2495,7 +2494,7 @@
     <col min="2" max="2" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row r="1" s="8" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2506,11 +2505,11 @@
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
@@ -2523,7 +2522,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2532,10 +2531,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2544,7 +2543,7 @@
     <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row r="1" s="8" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2557,17 +2556,17 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>80001</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C2" t="s">
@@ -2575,37 +2574,37 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="11"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="11"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>83</v>
       </c>
@@ -2630,16 +2629,39 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/document/策划案/资源列表.xlsx
+++ b/document/策划案/资源列表.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>序号</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>元宝</t>
-  </si>
-  <si>
-    <t>白条</t>
   </si>
   <si>
     <t>钻石</t>
@@ -1307,7 +1304,7 @@
         <v>90001</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:2">
@@ -1315,7 +1312,7 @@
         <v>90002</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:2">
@@ -1323,7 +1320,7 @@
         <v>90003</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1331,7 +1328,7 @@
         <v>90004</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1339,7 +1336,7 @@
         <v>90005</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1347,37 +1344,37 @@
         <v>90006</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1425,258 +1422,258 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="4"/>
       <c r="C20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2531,10 +2528,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2652,11 +2649,6 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B8"/>
